--- a/notas/Excel_Avances/DEFINICION 21.04.---2.XLSX
+++ b/notas/Excel_Avances/DEFINICION 21.04.---2.XLSX
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80015\Documents\00_SERVICIOS CIG\APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GoverSearch_1.0\notas\Excel_Avances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C5F001-8FAA-40C8-84AF-392E80B2B2FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16245825-21A7-43B9-B212-E7BA2ECC6499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_TABLAS" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="223">
   <si>
     <t>1.- MOBIL</t>
   </si>
@@ -1173,30 +1173,6 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1209,6 +1185,30 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,14 +2188,14 @@
       <c r="F3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
@@ -2735,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA6F1DF-D58C-42F9-A93C-9D119871F399}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView topLeftCell="B70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3037,10 +3037,10 @@
       <c r="D51" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="73" t="s">
+      <c r="E51" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="74"/>
+      <c r="F51" s="82"/>
       <c r="G51" s="42"/>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
@@ -3085,10 +3085,10 @@
       <c r="D61" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="76" t="s">
+      <c r="E61" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="F61" s="77"/>
+      <c r="F61" s="84"/>
       <c r="G61" s="42"/>
     </row>
     <row r="62" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3101,10 +3101,10 @@
       <c r="D63" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="76" t="s">
+      <c r="E63" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="F63" s="77"/>
+      <c r="F63" s="84"/>
       <c r="G63" s="42"/>
     </row>
     <row r="64" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3117,10 +3117,10 @@
       <c r="D65" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="73" t="s">
+      <c r="E65" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="74"/>
+      <c r="F65" s="82"/>
       <c r="G65" s="42"/>
     </row>
     <row r="66" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3237,11 +3237,14 @@
       <c r="D83" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="E83" s="73" t="s">
+      <c r="E83" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="F83" s="74"/>
+      <c r="F83" s="82"/>
       <c r="G83" s="42"/>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D84" s="41"/>
@@ -3253,10 +3256,10 @@
       <c r="D85" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="E85" s="73" t="s">
+      <c r="E85" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="F85" s="74"/>
+      <c r="F85" s="82"/>
       <c r="G85" s="42"/>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
@@ -3269,10 +3272,10 @@
       <c r="D87" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="E87" s="75">
+      <c r="E87" s="85">
         <v>44306</v>
       </c>
-      <c r="F87" s="74"/>
+      <c r="F87" s="82"/>
       <c r="G87" s="42"/>
       <c r="H87" s="69" t="s">
         <v>176</v>
@@ -3288,10 +3291,10 @@
       <c r="D89" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="73" t="s">
+      <c r="E89" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="F89" s="74"/>
+      <c r="F89" s="82"/>
       <c r="G89" s="42"/>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
@@ -3304,10 +3307,10 @@
       <c r="D91" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="E91" s="73" t="s">
+      <c r="E91" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="F91" s="74"/>
+      <c r="F91" s="82"/>
       <c r="G91" s="42"/>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.25">
@@ -3320,10 +3323,10 @@
       <c r="D93" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="E93" s="73" t="s">
+      <c r="E93" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="F93" s="74"/>
+      <c r="F93" s="82"/>
       <c r="G93" s="42"/>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.25">
@@ -3336,10 +3339,10 @@
       <c r="D95" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="E95" s="73" t="s">
+      <c r="E95" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="F95" s="74"/>
+      <c r="F95" s="82"/>
       <c r="G95" s="42"/>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.25">
@@ -3376,14 +3379,14 @@
       <c r="G101" s="49"/>
     </row>
     <row r="102" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="82"/>
-      <c r="D102" s="81" t="s">
+      <c r="C102" s="74"/>
+      <c r="D102" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="E102" s="71" t="s">
+      <c r="E102" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="F102" s="72"/>
+      <c r="F102" s="87"/>
       <c r="G102" s="42"/>
       <c r="I102" t="s">
         <v>165</v>
@@ -3396,14 +3399,14 @@
       <c r="G103" s="42"/>
     </row>
     <row r="104" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="82"/>
+      <c r="C104" s="74"/>
       <c r="D104" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="E104" s="71" t="s">
+      <c r="E104" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="F104" s="72"/>
+      <c r="F104" s="87"/>
       <c r="G104" s="42"/>
     </row>
     <row r="105" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3413,7 +3416,7 @@
       <c r="G105" s="42"/>
     </row>
     <row r="106" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D106" s="78" t="s">
+      <c r="D106" s="70" t="s">
         <v>193</v>
       </c>
       <c r="E106" s="63"/>
@@ -3427,7 +3430,7 @@
       <c r="G107" s="42"/>
     </row>
     <row r="108" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="78" t="s">
+      <c r="D108" s="70" t="s">
         <v>195</v>
       </c>
       <c r="E108" s="63"/>
@@ -3441,7 +3444,7 @@
       <c r="G109" s="42"/>
     </row>
     <row r="110" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D110" s="78" t="s">
+      <c r="D110" s="70" t="s">
         <v>194</v>
       </c>
       <c r="E110" s="63"/>
@@ -3455,7 +3458,7 @@
       <c r="G111" s="42"/>
     </row>
     <row r="112" spans="3:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D112" s="78" t="s">
+      <c r="D112" s="70" t="s">
         <v>196</v>
       </c>
       <c r="E112" s="63"/>
@@ -3469,7 +3472,7 @@
       <c r="G113" s="42"/>
     </row>
     <row r="114" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D114" s="81" t="s">
+      <c r="D114" s="73" t="s">
         <v>199</v>
       </c>
       <c r="E114" s="63"/>
@@ -3483,14 +3486,14 @@
       <c r="G115" s="42"/>
     </row>
     <row r="116" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="82"/>
+      <c r="C116" s="74"/>
       <c r="D116" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="E116" s="71" t="s">
+      <c r="E116" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="F116" s="72"/>
+      <c r="F116" s="87"/>
       <c r="G116" s="42"/>
     </row>
     <row r="117" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3500,14 +3503,14 @@
       <c r="G117" s="42"/>
     </row>
     <row r="118" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="82"/>
+      <c r="C118" s="74"/>
       <c r="D118" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="E118" s="71" t="s">
+      <c r="E118" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="F118" s="72"/>
+      <c r="F118" s="87"/>
       <c r="G118" s="42"/>
     </row>
     <row r="119" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3517,13 +3520,13 @@
       <c r="G119" s="42"/>
     </row>
     <row r="120" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D120" s="78" t="s">
+      <c r="D120" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="E120" s="71" t="s">
+      <c r="E120" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="F120" s="72"/>
+      <c r="F120" s="87"/>
       <c r="G120" s="42"/>
     </row>
     <row r="121" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3533,14 +3536,14 @@
       <c r="G121" s="42"/>
     </row>
     <row r="122" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="82"/>
+      <c r="C122" s="74"/>
       <c r="D122" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E122" s="71" t="s">
+      <c r="E122" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="F122" s="72"/>
+      <c r="F122" s="87"/>
       <c r="G122" s="42"/>
     </row>
     <row r="123" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3635,6 +3638,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E116:F116"/>
     <mergeCell ref="E95:F95"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E61:F61"/>
@@ -3646,12 +3655,6 @@
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="E91:F91"/>
     <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E116:F116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3899,7 +3902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCCFA68-34D9-4111-B68C-8B413EE1B331}">
   <dimension ref="A2:Z72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
@@ -3925,32 +3928,32 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H14" s="79">
+      <c r="H14" s="71">
         <v>2</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="71">
         <v>3</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="71">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="79">
+      <c r="E15" s="71">
         <v>1</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82" t="s">
+      <c r="G15" s="74"/>
+      <c r="H15" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82" t="s">
+      <c r="I15" s="74"/>
+      <c r="J15" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="K15" s="82" t="s">
+      <c r="K15" s="74" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3977,7 +3980,7 @@
       <c r="K18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="79">
+      <c r="M18" s="71">
         <v>5</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -3989,15 +3992,15 @@
       <c r="R18" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="T18" s="85" t="s">
+      <c r="T18" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="87"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="79"/>
     </row>
     <row r="21" spans="6:26" x14ac:dyDescent="0.25">
       <c r="Q21" s="1">
@@ -4008,13 +4011,13 @@
       </c>
     </row>
     <row r="23" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="S23" s="83" t="s">
+      <c r="S23" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="T23" s="83" t="s">
+      <c r="T23" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="U23" s="83" t="s">
+      <c r="U23" s="75" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4060,7 +4063,7 @@
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="79">
+      <c r="E33" s="71">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -4068,28 +4071,28 @@
       </c>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83" t="s">
+      <c r="G35" s="75"/>
+      <c r="H35" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="83" t="s">
+      <c r="I35" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="H36" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I36" s="80" t="s">
+      <c r="I36" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="J36" s="80" t="s">
+      <c r="J36" s="72" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4130,12 +4133,12 @@
       </c>
     </row>
     <row r="68" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G68" s="84" t="s">
+      <c r="G68" s="76" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G69" s="84" t="s">
+      <c r="G69" s="76" t="s">
         <v>213</v>
       </c>
     </row>
